--- a/biology/Zoologie/Couturière_à_longue_queue/Couturière_à_longue_queue.xlsx
+++ b/biology/Zoologie/Couturière_à_longue_queue/Couturière_à_longue_queue.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Couturi%C3%A8re_%C3%A0_longue_queue</t>
+          <t>Couturière_à_longue_queue</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Orthotomus sutorius
 La Couturière à longue queue (Orthotomus sutorius (Pennant, 1769)), appelée aussi parfois Fauvette couturière, est une espèce de passereau appartenant à la famille des Cisticolidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Couturi%C3%A8re_%C3%A0_longue_queue</t>
+          <t>Couturière_à_longue_queue</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son domaine est le sud et le sud-est de l'Asie.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Couturi%C3%A8re_%C3%A0_longue_queue</t>
+          <t>Couturière_à_longue_queue</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La couturière à longue queue est abondante dans les forêts tropicales dont les forêts de bambous, dans les jardins et aussi dans les plantations quand il y a de grands arbres.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Couturi%C3%A8re_%C3%A0_longue_queue</t>
+          <t>Couturière_à_longue_queue</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,10 +590,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La fauvette couturière mesure de 10 à 14 cm de la tête à la queue et pèse de 6 à 10 g.
-Elle vit en couple dans les arbres, les buissons et les bambous. C'est un oiseau chanteur  toujours en mouvement qui constamment émet un pépiement[1].
+Elle vit en couple dans les arbres, les buissons et les bambous. C'est un oiseau chanteur  toujours en mouvement qui constamment émet un pépiement.
 Elle descend aussi à terre où elle sautille la queue dressée en l'air.
 </t>
         </is>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Couturi%C3%A8re_%C3%A0_longue_queue</t>
+          <t>Couturière_à_longue_queue</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,7 +625,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La couturière à longue queue est insectivore.
 Elle se nourrit de petits insectes et de leurs larves, de petites araignées et de coléoptères.
@@ -622,7 +642,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Couturi%C3%A8re_%C3%A0_longue_queue</t>
+          <t>Couturière_à_longue_queue</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -640,9 +660,11 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La saison des amours a lieu de mars à décembre mais plutôt pendant la mousson de juin à août en Inde, de mars à mai et de août à septembre au Sri Lanka[2].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La saison des amours a lieu de mars à décembre mais plutôt pendant la mousson de juin à août en Inde, de mars à mai et de août à septembre au Sri Lanka.
 L'oiseau construit son nid avec des feuilles énormes (feuilles de manguiers, de figuiers...) qu'il troue avec son bec puis  coud entre elles avec un filament végétal, d'où ses noms familiers. Il obtient ainsi un cornet dans lequel il bâtit son nid proprement dit, un nid fait de laine de roseaux, de poils de mammifères... Ce nid est suspendu entre 1 et 5 m au-dessus du sol. L'oiselle y pond de 3 à 5 œufs, souvent verts ou bleuâtres ou roses, parsemés de grandes taches brun rouge. L'incubation dure environ 12 jours puis les deux parents nourrissent les oisillons. Les jeunes commencent à voler au bout d'environ 2 semaines. Mais il est à noter que le nid est souvent détruit et les oisillons mangés par des rongeurs (rats...), des chats, des lézards, des oiseaux rapaces et autres prédateurs.
 </t>
         </is>
